--- a/2024/SENT/Ransi/1/export 1.0.xlsx
+++ b/2024/SENT/Ransi/1/export 1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPSS\2024\Ransi\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPSS\2024\SENT\Ransi\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48DD27-BCAC-41CB-9DA6-D67A5FC8E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911FC97F-AB91-437C-A875-5D003559022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
   <si>
     <t>GET DATA</t>
   </si>
@@ -545,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -901,32 +901,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE0E0E0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE0E0E0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFAEAEAE"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FFE0E0E0"/>
@@ -979,7 +953,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1095,16 +1069,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="34" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1112,9 +1077,10 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="34" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="32" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -29055,8 +29021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B513" workbookViewId="0">
-      <selection activeCell="H522" sqref="H522"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="G438" sqref="G438:G442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29168,32 +29134,32 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -29204,7 +29170,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="31" t="s">
         <v>28</v>
       </c>
@@ -29213,7 +29179,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="31" t="s">
         <v>30</v>
       </c>
@@ -29222,7 +29188,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="31" t="s">
         <v>31</v>
       </c>
@@ -29231,7 +29197,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="31" t="s">
         <v>32</v>
       </c>
@@ -29240,7 +29206,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="31" t="s">
@@ -29251,7 +29217,7 @@
       </c>
     </row>
     <row r="34" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="31" t="s">
         <v>36</v>
       </c>
@@ -29260,7 +29226,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="48" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -29271,7 +29237,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="24" t="s">
         <v>41</v>
       </c>
@@ -29280,29 +29246,29 @@
       </c>
     </row>
     <row r="38" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="53"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="51"/>
     </row>
     <row r="39" spans="2:18" ht="191.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="8" t="s">
         <v>44</v>
       </c>
@@ -29350,7 +29316,7 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="47" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="32" t="s">
@@ -29403,7 +29369,7 @@
       </c>
     </row>
     <row r="41" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="56"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="24" t="s">
         <v>61</v>
       </c>
@@ -29459,18 +29425,18 @@
       </c>
     </row>
     <row r="46" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="2:18" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="25" t="s">
         <v>69</v>
       </c>
@@ -29485,7 +29451,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="32" t="s">
         <v>142</v>
       </c>
@@ -29503,7 +29469,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="50"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="31" t="s">
         <v>143</v>
       </c>
@@ -29521,7 +29487,7 @@
       </c>
     </row>
     <row r="50" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="56"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="24" t="s">
         <v>68</v>
       </c>
@@ -29537,18 +29503,18 @@
       <c r="G50" s="23"/>
     </row>
     <row r="67" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="51"/>
     </row>
     <row r="68" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="25" t="s">
         <v>69</v>
       </c>
@@ -29563,7 +29529,7 @@
       </c>
     </row>
     <row r="69" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="49"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="32" t="s">
         <v>138</v>
       </c>
@@ -29581,7 +29547,7 @@
       </c>
     </row>
     <row r="70" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="31" t="s">
         <v>139</v>
       </c>
@@ -29599,7 +29565,7 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="50"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="31" t="s">
         <v>140</v>
       </c>
@@ -29617,7 +29583,7 @@
       </c>
     </row>
     <row r="72" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="50"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="31" t="s">
         <v>141</v>
       </c>
@@ -29635,7 +29601,7 @@
       </c>
     </row>
     <row r="73" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="56"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="24" t="s">
         <v>68</v>
       </c>
@@ -29651,18 +29617,18 @@
       <c r="G73" s="23"/>
     </row>
     <row r="90" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="51"/>
     </row>
     <row r="91" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="54"/>
-      <c r="C91" s="55"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="25" t="s">
         <v>69</v>
       </c>
@@ -29677,7 +29643,7 @@
       </c>
     </row>
     <row r="92" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="49"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="31" t="s">
         <v>137</v>
       </c>
@@ -29695,7 +29661,7 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="50"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="31" t="s">
         <v>134</v>
       </c>
@@ -29713,7 +29679,7 @@
       </c>
     </row>
     <row r="94" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="50"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="32" t="s">
         <v>133</v>
       </c>
@@ -29731,7 +29697,7 @@
       </c>
     </row>
     <row r="95" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="50"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="31" t="s">
         <v>135</v>
       </c>
@@ -29749,7 +29715,7 @@
       </c>
     </row>
     <row r="96" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="50"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="31" t="s">
         <v>136</v>
       </c>
@@ -29767,7 +29733,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="50"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="31" t="s">
         <v>78</v>
       </c>
@@ -29785,7 +29751,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="56"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="24" t="s">
         <v>68</v>
       </c>
@@ -29801,18 +29767,18 @@
       <c r="G98" s="23"/>
     </row>
     <row r="115" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="53"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="51"/>
     </row>
     <row r="116" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="54"/>
-      <c r="C116" s="55"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="53"/>
       <c r="D116" s="25" t="s">
         <v>69</v>
       </c>
@@ -29827,7 +29793,7 @@
       </c>
     </row>
     <row r="117" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="49"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="31" t="s">
         <v>129</v>
       </c>
@@ -29845,7 +29811,7 @@
       </c>
     </row>
     <row r="118" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="50"/>
+      <c r="B118" s="48"/>
       <c r="C118" s="32" t="s">
         <v>128</v>
       </c>
@@ -29863,7 +29829,7 @@
       </c>
     </row>
     <row r="119" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="50"/>
+      <c r="B119" s="48"/>
       <c r="C119" s="31" t="s">
         <v>131</v>
       </c>
@@ -29881,7 +29847,7 @@
       </c>
     </row>
     <row r="120" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="50"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="31" t="s">
         <v>132</v>
       </c>
@@ -29899,7 +29865,7 @@
       </c>
     </row>
     <row r="121" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="50"/>
+      <c r="B121" s="48"/>
       <c r="C121" s="31" t="s">
         <v>130</v>
       </c>
@@ -29917,7 +29883,7 @@
       </c>
     </row>
     <row r="122" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="50"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="31" t="s">
         <v>78</v>
       </c>
@@ -29935,7 +29901,7 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="56"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="24" t="s">
         <v>68</v>
       </c>
@@ -29951,18 +29917,18 @@
       <c r="G123" s="23"/>
     </row>
     <row r="140" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C140" s="52"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="53"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="51"/>
     </row>
     <row r="141" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="54"/>
-      <c r="C141" s="55"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="53"/>
       <c r="D141" s="25" t="s">
         <v>69</v>
       </c>
@@ -29977,7 +29943,7 @@
       </c>
     </row>
     <row r="142" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="49"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="32" t="s">
         <v>114</v>
       </c>
@@ -29995,7 +29961,7 @@
       </c>
     </row>
     <row r="143" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="50"/>
+      <c r="B143" s="48"/>
       <c r="C143" s="31" t="s">
         <v>115</v>
       </c>
@@ -30013,7 +29979,7 @@
       </c>
     </row>
     <row r="144" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="50"/>
+      <c r="B144" s="48"/>
       <c r="C144" s="31" t="s">
         <v>78</v>
       </c>
@@ -30031,7 +29997,7 @@
       </c>
     </row>
     <row r="145" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="56"/>
+      <c r="B145" s="54"/>
       <c r="C145" s="24" t="s">
         <v>68</v>
       </c>
@@ -30047,18 +30013,18 @@
       <c r="G145" s="23"/>
     </row>
     <row r="158" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="51" t="s">
+      <c r="B158" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C158" s="52"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="52"/>
-      <c r="G158" s="53"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="51"/>
     </row>
     <row r="159" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="54"/>
-      <c r="C159" s="55"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="53"/>
       <c r="D159" s="25" t="s">
         <v>69</v>
       </c>
@@ -30068,10 +30034,12 @@
       <c r="F159" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G159" s="27"/>
+      <c r="G159" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="160" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="49"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="33" t="s">
         <v>74</v>
       </c>
@@ -30079,17 +30047,20 @@
         <v>34</v>
       </c>
       <c r="E160" s="37">
-        <f>D160/100*100</f>
-        <v>34</v>
+        <f>D160/204*100</f>
+        <v>16.666666666666664</v>
       </c>
       <c r="F160" s="17">
         <f>E160</f>
-        <v>34</v>
-      </c>
-      <c r="G160" s="18"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G160" s="18">
+        <f>F160</f>
+        <v>16.666666666666664</v>
+      </c>
     </row>
     <row r="161" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="50"/>
+      <c r="B161" s="48"/>
       <c r="C161" s="33" t="s">
         <v>75</v>
       </c>
@@ -30097,17 +30068,20 @@
         <v>53</v>
       </c>
       <c r="E161" s="38">
-        <f t="shared" ref="E161:E164" si="0">D161/100*100</f>
-        <v>53</v>
+        <f>D161/204*100</f>
+        <v>25.980392156862749</v>
       </c>
       <c r="F161" s="36">
         <f>E161</f>
-        <v>53</v>
-      </c>
-      <c r="G161" s="21"/>
+        <v>25.980392156862749</v>
+      </c>
+      <c r="G161" s="21">
+        <f>F161+G160</f>
+        <v>42.647058823529413</v>
+      </c>
     </row>
     <row r="162" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="50"/>
+      <c r="B162" s="48"/>
       <c r="C162" s="33" t="s">
         <v>76</v>
       </c>
@@ -30115,17 +30089,20 @@
         <v>12</v>
       </c>
       <c r="E162" s="38">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="E162:E164" si="0">D162/204*100</f>
+        <v>5.8823529411764701</v>
       </c>
       <c r="F162" s="36">
         <f t="shared" ref="F162:F164" si="1">E162</f>
-        <v>12</v>
-      </c>
-      <c r="G162" s="21"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="G162" s="21">
+        <f t="shared" ref="G162:G164" si="2">F162+G161</f>
+        <v>48.529411764705884</v>
+      </c>
     </row>
     <row r="163" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="50"/>
+      <c r="B163" s="48"/>
       <c r="C163" s="33" t="s">
         <v>77</v>
       </c>
@@ -30134,45 +30111,69 @@
       </c>
       <c r="E163" s="38">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>46.568627450980394</v>
       </c>
       <c r="F163" s="36">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="G163" s="21"/>
+        <v>46.568627450980394</v>
+      </c>
+      <c r="G163" s="21">
+        <f t="shared" si="2"/>
+        <v>95.098039215686271</v>
+      </c>
     </row>
     <row r="164" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="50"/>
-      <c r="C164" s="46" t="s">
+      <c r="B164" s="48"/>
+      <c r="C164" s="43" t="s">
         <v>78</v>
       </c>
       <c r="D164" s="40">
         <v>10</v>
       </c>
-      <c r="E164" s="42">
+      <c r="E164" s="38">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F164" s="43">
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="F164" s="41">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G164" s="21"/>
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="G164" s="21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C165" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" s="14">
+        <f>SUM(D160:D164)</f>
+        <v>204</v>
+      </c>
+      <c r="E165" s="22">
+        <f>SUM(E160:E164)</f>
+        <v>100</v>
+      </c>
+      <c r="F165" s="22">
+        <f>SUM(F160:F164)</f>
+        <v>100</v>
+      </c>
+      <c r="G165" s="23"/>
     </row>
     <row r="183" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C183" s="52"/>
-      <c r="D183" s="52"/>
-      <c r="E183" s="52"/>
-      <c r="F183" s="52"/>
-      <c r="G183" s="53"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="50"/>
+      <c r="F183" s="50"/>
+      <c r="G183" s="51"/>
     </row>
     <row r="184" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="54"/>
-      <c r="C184" s="55"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="53"/>
       <c r="D184" s="25" t="s">
         <v>69</v>
       </c>
@@ -30187,7 +30188,7 @@
       </c>
     </row>
     <row r="185" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="49"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="32" t="s">
         <v>145</v>
       </c>
@@ -30205,7 +30206,7 @@
       </c>
     </row>
     <row r="186" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="50"/>
+      <c r="B186" s="48"/>
       <c r="C186" s="31" t="s">
         <v>146</v>
       </c>
@@ -30223,7 +30224,7 @@
       </c>
     </row>
     <row r="187" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="50"/>
+      <c r="B187" s="48"/>
       <c r="C187" s="31" t="s">
         <v>147</v>
       </c>
@@ -30241,7 +30242,7 @@
       </c>
     </row>
     <row r="188" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="50"/>
+      <c r="B188" s="48"/>
       <c r="C188" s="31" t="s">
         <v>63</v>
       </c>
@@ -30259,7 +30260,7 @@
       </c>
     </row>
     <row r="189" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="56"/>
+      <c r="B189" s="54"/>
       <c r="C189" s="24" t="s">
         <v>68</v>
       </c>
@@ -30275,18 +30276,18 @@
       <c r="G189" s="23"/>
     </row>
     <row r="204" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="51" t="s">
+      <c r="B204" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C204" s="52"/>
-      <c r="D204" s="52"/>
-      <c r="E204" s="52"/>
-      <c r="F204" s="52"/>
-      <c r="G204" s="53"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="51"/>
     </row>
     <row r="205" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="54"/>
-      <c r="C205" s="55"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="53"/>
       <c r="D205" s="25" t="s">
         <v>69</v>
       </c>
@@ -30296,7 +30297,9 @@
       <c r="F205" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G205" s="27"/>
+      <c r="G205" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="206" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="28"/>
@@ -30307,14 +30310,17 @@
         <v>52</v>
       </c>
       <c r="E206" s="37">
-        <f>D206/100*100</f>
-        <v>52</v>
+        <f>D206/284*100</f>
+        <v>18.30985915492958</v>
       </c>
       <c r="F206" s="17">
         <f>E206</f>
-        <v>52</v>
-      </c>
-      <c r="G206" s="18"/>
+        <v>18.30985915492958</v>
+      </c>
+      <c r="G206" s="18">
+        <f>F206</f>
+        <v>18.30985915492958</v>
+      </c>
     </row>
     <row r="207" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="29"/>
@@ -30325,14 +30331,17 @@
         <v>39</v>
       </c>
       <c r="E207" s="38">
-        <f t="shared" ref="E207:E214" si="2">D207/100*100</f>
-        <v>39</v>
+        <f>D207/284*100</f>
+        <v>13.732394366197184</v>
       </c>
       <c r="F207" s="36">
         <f>E207</f>
-        <v>39</v>
-      </c>
-      <c r="G207" s="21"/>
+        <v>13.732394366197184</v>
+      </c>
+      <c r="G207" s="21">
+        <f>F207+G206</f>
+        <v>32.042253521126767</v>
+      </c>
     </row>
     <row r="208" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="29"/>
@@ -30343,14 +30352,17 @@
         <v>4</v>
       </c>
       <c r="E208" s="38">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="E208:E214" si="3">D208/284*100</f>
+        <v>1.4084507042253522</v>
       </c>
       <c r="F208" s="36">
-        <f t="shared" ref="F208:F214" si="3">E208</f>
-        <v>4</v>
-      </c>
-      <c r="G208" s="21"/>
+        <f t="shared" ref="F208:G214" si="4">E208</f>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="G208" s="21">
+        <f t="shared" ref="G208:G214" si="5">F208+G207</f>
+        <v>33.450704225352119</v>
+      </c>
     </row>
     <row r="209" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="29"/>
@@ -30361,14 +30373,17 @@
         <v>40</v>
       </c>
       <c r="E209" s="38">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>14.084507042253522</v>
       </c>
       <c r="F209" s="36">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="G209" s="21"/>
+        <f t="shared" si="4"/>
+        <v>14.084507042253522</v>
+      </c>
+      <c r="G209" s="21">
+        <f t="shared" si="5"/>
+        <v>47.535211267605639</v>
+      </c>
     </row>
     <row r="210" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="29"/>
@@ -30379,14 +30394,17 @@
         <v>44</v>
       </c>
       <c r="E210" s="38">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>15.492957746478872</v>
       </c>
       <c r="F210" s="36">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="G210" s="21"/>
+        <f t="shared" si="4"/>
+        <v>15.492957746478872</v>
+      </c>
+      <c r="G210" s="21">
+        <f t="shared" si="5"/>
+        <v>63.028169014084511</v>
+      </c>
     </row>
     <row r="211" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="29"/>
@@ -30397,76 +30415,109 @@
         <v>45</v>
       </c>
       <c r="E211" s="38">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>15.845070422535212</v>
       </c>
       <c r="F211" s="36">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="G211" s="21"/>
+        <f t="shared" si="4"/>
+        <v>15.845070422535212</v>
+      </c>
+      <c r="G211" s="21">
+        <f t="shared" si="5"/>
+        <v>78.873239436619727</v>
+      </c>
     </row>
     <row r="212" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D212" s="48">
+      <c r="D212" s="45">
         <v>18</v>
       </c>
       <c r="E212" s="38">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>6.3380281690140841</v>
       </c>
       <c r="F212" s="36">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>6.3380281690140841</v>
+      </c>
+      <c r="G212" s="21">
+        <f t="shared" si="5"/>
+        <v>85.211267605633807</v>
       </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C213" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D213" s="48">
+      <c r="D213" s="45">
         <v>38</v>
       </c>
       <c r="E213" s="38">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>13.380281690140844</v>
       </c>
       <c r="F213" s="36">
-        <f t="shared" si="3"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>13.380281690140844</v>
+      </c>
+      <c r="G213" s="21">
+        <f t="shared" si="5"/>
+        <v>98.591549295774655</v>
       </c>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C214" s="46" t="s">
+      <c r="C214" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D214" s="47">
+      <c r="D214" s="44">
         <v>4</v>
       </c>
-      <c r="E214" s="42">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F214" s="43">
+      <c r="E214" s="38">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="F214" s="41">
+        <f t="shared" si="4"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="G214" s="21">
+        <f t="shared" si="5"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C215" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" s="14">
+        <f>SUM(D206:D214)</f>
+        <v>284</v>
+      </c>
+      <c r="E215" s="22">
+        <f>SUM(E206:E214)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="F215" s="22">
+        <f>SUM(F206:F214)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G215" s="23"/>
     </row>
     <row r="230" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="51" t="s">
+      <c r="B230" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C230" s="52"/>
-      <c r="D230" s="52"/>
-      <c r="E230" s="52"/>
-      <c r="F230" s="52"/>
-      <c r="G230" s="53"/>
+      <c r="C230" s="50"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="51"/>
     </row>
     <row r="231" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="54"/>
-      <c r="C231" s="55"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="53"/>
       <c r="D231" s="25" t="s">
         <v>69</v>
       </c>
@@ -30481,7 +30532,7 @@
       </c>
     </row>
     <row r="232" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="49"/>
+      <c r="B232" s="47"/>
       <c r="C232" s="31" t="s">
         <v>114</v>
       </c>
@@ -30499,7 +30550,7 @@
       </c>
     </row>
     <row r="233" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="50"/>
+      <c r="B233" s="48"/>
       <c r="C233" s="31" t="s">
         <v>127</v>
       </c>
@@ -30517,7 +30568,7 @@
       </c>
     </row>
     <row r="234" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="50"/>
+      <c r="B234" s="48"/>
       <c r="C234" s="31" t="s">
         <v>115</v>
       </c>
@@ -30535,7 +30586,7 @@
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B235" s="50"/>
+      <c r="B235" s="48"/>
       <c r="C235" s="32" t="s">
         <v>117</v>
       </c>
@@ -30553,7 +30604,7 @@
       </c>
     </row>
     <row r="236" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="56"/>
+      <c r="B236" s="54"/>
       <c r="C236" s="24" t="s">
         <v>68</v>
       </c>
@@ -30569,18 +30620,18 @@
       <c r="G236" s="23"/>
     </row>
     <row r="253" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="51" t="s">
+      <c r="B253" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C253" s="52"/>
-      <c r="D253" s="52"/>
-      <c r="E253" s="52"/>
-      <c r="F253" s="52"/>
-      <c r="G253" s="53"/>
+      <c r="C253" s="50"/>
+      <c r="D253" s="50"/>
+      <c r="E253" s="50"/>
+      <c r="F253" s="50"/>
+      <c r="G253" s="51"/>
     </row>
     <row r="254" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="54"/>
-      <c r="C254" s="55"/>
+      <c r="B254" s="52"/>
+      <c r="C254" s="53"/>
       <c r="D254" s="25" t="s">
         <v>69</v>
       </c>
@@ -30595,7 +30646,7 @@
       </c>
     </row>
     <row r="255" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="49"/>
+      <c r="B255" s="47"/>
       <c r="C255" s="32" t="s">
         <v>124</v>
       </c>
@@ -30613,7 +30664,7 @@
       </c>
     </row>
     <row r="256" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="50"/>
+      <c r="B256" s="48"/>
       <c r="C256" s="31" t="s">
         <v>126</v>
       </c>
@@ -30631,7 +30682,7 @@
       </c>
     </row>
     <row r="257" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="50"/>
+      <c r="B257" s="48"/>
       <c r="C257" s="31" t="s">
         <v>125</v>
       </c>
@@ -30649,7 +30700,7 @@
       </c>
     </row>
     <row r="258" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="50"/>
+      <c r="B258" s="48"/>
       <c r="C258" s="31" t="s">
         <v>78</v>
       </c>
@@ -30667,7 +30718,7 @@
       </c>
     </row>
     <row r="259" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="56"/>
+      <c r="B259" s="54"/>
       <c r="C259" s="24" t="s">
         <v>68</v>
       </c>
@@ -30683,18 +30734,18 @@
       <c r="G259" s="23"/>
     </row>
     <row r="276" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="51" t="s">
+      <c r="B276" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C276" s="52"/>
-      <c r="D276" s="52"/>
-      <c r="E276" s="52"/>
-      <c r="F276" s="52"/>
-      <c r="G276" s="53"/>
+      <c r="C276" s="50"/>
+      <c r="D276" s="50"/>
+      <c r="E276" s="50"/>
+      <c r="F276" s="50"/>
+      <c r="G276" s="51"/>
     </row>
     <row r="277" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="54"/>
-      <c r="C277" s="55"/>
+      <c r="B277" s="52"/>
+      <c r="C277" s="53"/>
       <c r="D277" s="25" t="s">
         <v>69</v>
       </c>
@@ -30709,7 +30760,7 @@
       </c>
     </row>
     <row r="278" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="49"/>
+      <c r="B278" s="47"/>
       <c r="C278" s="31" t="s">
         <v>114</v>
       </c>
@@ -30727,7 +30778,7 @@
       </c>
     </row>
     <row r="279" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="50"/>
+      <c r="B279" s="48"/>
       <c r="C279" s="31" t="s">
         <v>123</v>
       </c>
@@ -30745,7 +30796,7 @@
       </c>
     </row>
     <row r="280" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="50"/>
+      <c r="B280" s="48"/>
       <c r="C280" s="31" t="s">
         <v>115</v>
       </c>
@@ -30763,7 +30814,7 @@
       </c>
     </row>
     <row r="281" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="50"/>
+      <c r="B281" s="48"/>
       <c r="C281" s="32" t="s">
         <v>117</v>
       </c>
@@ -30781,7 +30832,7 @@
       </c>
     </row>
     <row r="282" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="56"/>
+      <c r="B282" s="54"/>
       <c r="C282" s="24" t="s">
         <v>68</v>
       </c>
@@ -30798,18 +30849,18 @@
       <c r="G282" s="23"/>
     </row>
     <row r="299" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="51" t="s">
+      <c r="B299" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C299" s="52"/>
-      <c r="D299" s="52"/>
-      <c r="E299" s="52"/>
-      <c r="F299" s="52"/>
-      <c r="G299" s="53"/>
+      <c r="C299" s="50"/>
+      <c r="D299" s="50"/>
+      <c r="E299" s="50"/>
+      <c r="F299" s="50"/>
+      <c r="G299" s="51"/>
     </row>
     <row r="300" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="54"/>
-      <c r="C300" s="55"/>
+      <c r="B300" s="52"/>
+      <c r="C300" s="53"/>
       <c r="D300" s="25" t="s">
         <v>69</v>
       </c>
@@ -30824,7 +30875,7 @@
       </c>
     </row>
     <row r="301" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="49"/>
+      <c r="B301" s="47"/>
       <c r="C301" s="31" t="s">
         <v>121</v>
       </c>
@@ -30842,7 +30893,7 @@
       </c>
     </row>
     <row r="302" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="50"/>
+      <c r="B302" s="48"/>
       <c r="C302" s="31" t="s">
         <v>120</v>
       </c>
@@ -30860,7 +30911,7 @@
       </c>
     </row>
     <row r="303" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="50"/>
+      <c r="B303" s="48"/>
       <c r="C303" s="31" t="s">
         <v>122</v>
       </c>
@@ -30878,7 +30929,7 @@
       </c>
     </row>
     <row r="304" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="50"/>
+      <c r="B304" s="48"/>
       <c r="C304" s="32" t="s">
         <v>117</v>
       </c>
@@ -30896,7 +30947,7 @@
       </c>
     </row>
     <row r="305" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="56"/>
+      <c r="B305" s="54"/>
       <c r="C305" s="24" t="s">
         <v>68</v>
       </c>
@@ -30912,18 +30963,18 @@
       <c r="G305" s="23"/>
     </row>
     <row r="319" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="51" t="s">
+      <c r="B319" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C319" s="52"/>
-      <c r="D319" s="52"/>
-      <c r="E319" s="52"/>
-      <c r="F319" s="52"/>
-      <c r="G319" s="53"/>
+      <c r="C319" s="50"/>
+      <c r="D319" s="50"/>
+      <c r="E319" s="50"/>
+      <c r="F319" s="50"/>
+      <c r="G319" s="51"/>
     </row>
     <row r="320" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="54"/>
-      <c r="C320" s="55"/>
+      <c r="B320" s="52"/>
+      <c r="C320" s="53"/>
       <c r="D320" s="25" t="s">
         <v>69</v>
       </c>
@@ -30933,10 +30984,12 @@
       <c r="F320" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G320" s="27"/>
+      <c r="G320" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="321" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="49"/>
+      <c r="B321" s="47"/>
       <c r="C321" s="33" t="s">
         <v>89</v>
       </c>
@@ -30944,17 +30997,20 @@
         <v>80</v>
       </c>
       <c r="E321" s="37">
-        <f>D321/100*100</f>
-        <v>80</v>
+        <f>D321/186*100</f>
+        <v>43.01075268817204</v>
       </c>
       <c r="F321" s="17">
         <f>E321</f>
-        <v>80</v>
-      </c>
-      <c r="G321" s="18"/>
+        <v>43.01075268817204</v>
+      </c>
+      <c r="G321" s="18">
+        <f>F321</f>
+        <v>43.01075268817204</v>
+      </c>
     </row>
     <row r="322" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="50"/>
+      <c r="B322" s="48"/>
       <c r="C322" s="33" t="s">
         <v>90</v>
       </c>
@@ -30962,17 +31018,20 @@
         <v>46</v>
       </c>
       <c r="E322" s="38">
-        <f t="shared" ref="E322:E325" si="4">D322/100*100</f>
-        <v>46</v>
+        <f>D322/186*100</f>
+        <v>24.731182795698924</v>
       </c>
       <c r="F322" s="36">
         <f>E322</f>
-        <v>46</v>
-      </c>
-      <c r="G322" s="21"/>
+        <v>24.731182795698924</v>
+      </c>
+      <c r="G322" s="21">
+        <f>F322+G321</f>
+        <v>67.741935483870961</v>
+      </c>
     </row>
     <row r="323" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="50"/>
+      <c r="B323" s="48"/>
       <c r="C323" s="33" t="s">
         <v>91</v>
       </c>
@@ -30980,17 +31039,20 @@
         <v>40</v>
       </c>
       <c r="E323" s="38">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" ref="E323:E325" si="6">D323/186*100</f>
+        <v>21.50537634408602</v>
       </c>
       <c r="F323" s="36">
-        <f t="shared" ref="F323:F325" si="5">E323</f>
-        <v>40</v>
-      </c>
-      <c r="G323" s="21"/>
+        <f t="shared" ref="F323:G325" si="7">E323</f>
+        <v>21.50537634408602</v>
+      </c>
+      <c r="G323" s="21">
+        <f t="shared" ref="G323:G325" si="8">F323+G322</f>
+        <v>89.247311827956977</v>
+      </c>
     </row>
     <row r="324" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="50"/>
+      <c r="B324" s="48"/>
       <c r="C324" s="33" t="s">
         <v>92</v>
       </c>
@@ -30998,46 +31060,70 @@
         <v>15</v>
       </c>
       <c r="E324" s="38">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>8.064516129032258</v>
       </c>
       <c r="F324" s="36">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="G324" s="21"/>
+        <f t="shared" si="7"/>
+        <v>8.064516129032258</v>
+      </c>
+      <c r="G324" s="21">
+        <f t="shared" si="8"/>
+        <v>97.311827956989234</v>
+      </c>
     </row>
     <row r="325" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="50"/>
-      <c r="C325" s="45" t="s">
+      <c r="B325" s="48"/>
+      <c r="C325" s="42" t="s">
         <v>78</v>
       </c>
       <c r="D325" s="40">
         <v>5</v>
       </c>
-      <c r="E325" s="42">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F325" s="43">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G325" s="21"/>
+      <c r="E325" s="38">
+        <f t="shared" si="6"/>
+        <v>2.6881720430107525</v>
+      </c>
+      <c r="F325" s="41">
+        <f t="shared" si="7"/>
+        <v>2.6881720430107525</v>
+      </c>
+      <c r="G325" s="21">
+        <f t="shared" si="8"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C326" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D326" s="14">
+        <f>SUM(D321:D325)</f>
+        <v>186</v>
+      </c>
+      <c r="E326" s="22">
+        <f>SUM(E321:E325)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F326" s="22">
+        <f>SUM(F321:F325)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="G326" s="23"/>
     </row>
     <row r="342" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="51" t="s">
+      <c r="B342" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C342" s="52"/>
-      <c r="D342" s="52"/>
-      <c r="E342" s="52"/>
-      <c r="F342" s="52"/>
-      <c r="G342" s="53"/>
+      <c r="C342" s="50"/>
+      <c r="D342" s="50"/>
+      <c r="E342" s="50"/>
+      <c r="F342" s="50"/>
+      <c r="G342" s="51"/>
     </row>
     <row r="343" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="54"/>
-      <c r="C343" s="55"/>
+      <c r="B343" s="52"/>
+      <c r="C343" s="53"/>
       <c r="D343" s="25" t="s">
         <v>69</v>
       </c>
@@ -31047,10 +31133,12 @@
       <c r="F343" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G343" s="27"/>
+      <c r="G343" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="344" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="49"/>
+      <c r="B344" s="47"/>
       <c r="C344" s="34" t="s">
         <v>94</v>
       </c>
@@ -31058,17 +31146,20 @@
         <v>50</v>
       </c>
       <c r="E344" s="37">
-        <f>D344/100*100</f>
-        <v>50</v>
+        <f>D344/229*100</f>
+        <v>21.834061135371179</v>
       </c>
       <c r="F344" s="17">
         <f>E344</f>
-        <v>50</v>
-      </c>
-      <c r="G344" s="18"/>
+        <v>21.834061135371179</v>
+      </c>
+      <c r="G344" s="18">
+        <f>F344</f>
+        <v>21.834061135371179</v>
+      </c>
     </row>
     <row r="345" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="50"/>
+      <c r="B345" s="48"/>
       <c r="C345" s="34" t="s">
         <v>95</v>
       </c>
@@ -31076,17 +31167,20 @@
         <v>2</v>
       </c>
       <c r="E345" s="38">
-        <f t="shared" ref="E345:E348" si="6">D345/100*100</f>
-        <v>2</v>
+        <f>D345/229*100</f>
+        <v>0.87336244541484709</v>
       </c>
       <c r="F345" s="36">
         <f>E345</f>
-        <v>2</v>
-      </c>
-      <c r="G345" s="21"/>
+        <v>0.87336244541484709</v>
+      </c>
+      <c r="G345" s="21">
+        <f>F345+G344</f>
+        <v>22.707423580786028</v>
+      </c>
     </row>
     <row r="346" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="50"/>
+      <c r="B346" s="48"/>
       <c r="C346" s="34" t="s">
         <v>96</v>
       </c>
@@ -31094,17 +31188,20 @@
         <v>63</v>
       </c>
       <c r="E346" s="38">
-        <f t="shared" si="6"/>
-        <v>63</v>
+        <f t="shared" ref="E346:E348" si="9">D346/229*100</f>
+        <v>27.510917030567683</v>
       </c>
       <c r="F346" s="36">
-        <f t="shared" ref="F346:F348" si="7">E346</f>
-        <v>63</v>
-      </c>
-      <c r="G346" s="21"/>
+        <f t="shared" ref="F346:F348" si="10">E346</f>
+        <v>27.510917030567683</v>
+      </c>
+      <c r="G346" s="21">
+        <f t="shared" ref="G346:G348" si="11">F346+G345</f>
+        <v>50.21834061135371</v>
+      </c>
     </row>
     <row r="347" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="50"/>
+      <c r="B347" s="48"/>
       <c r="C347" s="34" t="s">
         <v>97</v>
       </c>
@@ -31112,46 +31209,73 @@
         <v>49</v>
       </c>
       <c r="E347" s="38">
-        <f t="shared" si="6"/>
-        <v>49</v>
+        <f t="shared" si="9"/>
+        <v>21.397379912663755</v>
       </c>
       <c r="F347" s="36">
-        <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="G347" s="21"/>
+        <f t="shared" si="10"/>
+        <v>21.397379912663755</v>
+      </c>
+      <c r="G347" s="21">
+        <f t="shared" si="11"/>
+        <v>71.615720524017462</v>
+      </c>
     </row>
     <row r="348" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="50"/>
+      <c r="B348" s="48"/>
       <c r="C348" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D348" s="40">
         <v>65</v>
       </c>
-      <c r="E348" s="42">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="F348" s="43">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="G348" s="44"/>
+      <c r="E348" s="38">
+        <f t="shared" si="9"/>
+        <v>28.384279475982531</v>
+      </c>
+      <c r="F348" s="41">
+        <f t="shared" si="10"/>
+        <v>28.384279475982531</v>
+      </c>
+      <c r="G348" s="21">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C349" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" s="14">
+        <f>SUM(D344:D348)</f>
+        <v>229</v>
+      </c>
+      <c r="E349" s="22">
+        <f>SUM(E344:E348)</f>
+        <v>100</v>
+      </c>
+      <c r="F349" s="22">
+        <f>SUM(F344:F348)</f>
+        <v>100</v>
+      </c>
+      <c r="G349" s="23"/>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F350" s="46"/>
     </row>
     <row r="365" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="51" t="s">
+      <c r="B365" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C365" s="52"/>
-      <c r="D365" s="52"/>
-      <c r="E365" s="52"/>
-      <c r="F365" s="52"/>
-      <c r="G365" s="53"/>
+      <c r="C365" s="50"/>
+      <c r="D365" s="50"/>
+      <c r="E365" s="50"/>
+      <c r="F365" s="50"/>
+      <c r="G365" s="51"/>
     </row>
     <row r="366" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="54"/>
-      <c r="C366" s="55"/>
+      <c r="B366" s="52"/>
+      <c r="C366" s="53"/>
       <c r="D366" s="25" t="s">
         <v>69</v>
       </c>
@@ -31161,10 +31285,12 @@
       <c r="F366" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G366" s="27"/>
+      <c r="G366" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="367" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="49"/>
+      <c r="B367" s="47"/>
       <c r="C367" s="34" t="s">
         <v>100</v>
       </c>
@@ -31172,17 +31298,20 @@
         <v>25</v>
       </c>
       <c r="E367" s="37">
-        <f>D367/100*100</f>
-        <v>25</v>
+        <f>D367/145*100</f>
+        <v>17.241379310344829</v>
       </c>
       <c r="F367" s="17">
         <f>E367</f>
-        <v>25</v>
-      </c>
-      <c r="G367" s="18"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="G367" s="18">
+        <f>F367</f>
+        <v>17.241379310344829</v>
+      </c>
     </row>
     <row r="368" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="50"/>
+      <c r="B368" s="48"/>
       <c r="C368" s="34" t="s">
         <v>101</v>
       </c>
@@ -31190,17 +31319,20 @@
         <v>18</v>
       </c>
       <c r="E368" s="38">
-        <f t="shared" ref="E368:E372" si="8">D368/100*100</f>
-        <v>18</v>
+        <f>D368/145*100</f>
+        <v>12.413793103448276</v>
       </c>
       <c r="F368" s="36">
         <f>E368</f>
-        <v>18</v>
-      </c>
-      <c r="G368" s="21"/>
+        <v>12.413793103448276</v>
+      </c>
+      <c r="G368" s="21">
+        <f>F368+G367</f>
+        <v>29.655172413793103</v>
+      </c>
     </row>
     <row r="369" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="50"/>
+      <c r="B369" s="48"/>
       <c r="C369" s="34" t="s">
         <v>102</v>
       </c>
@@ -31208,17 +31340,20 @@
         <v>47</v>
       </c>
       <c r="E369" s="38">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" ref="E369:E372" si="12">D369/145*100</f>
+        <v>32.41379310344827</v>
       </c>
       <c r="F369" s="36">
-        <f t="shared" ref="F369:F372" si="9">E369</f>
-        <v>47</v>
-      </c>
-      <c r="G369" s="21"/>
+        <f t="shared" ref="F369:F372" si="13">E369</f>
+        <v>32.41379310344827</v>
+      </c>
+      <c r="G369" s="21">
+        <f t="shared" ref="G369:G372" si="14">F369+G368</f>
+        <v>62.068965517241374</v>
+      </c>
     </row>
     <row r="370" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="50"/>
+      <c r="B370" s="48"/>
       <c r="C370" s="34" t="s">
         <v>103</v>
       </c>
@@ -31226,17 +31361,20 @@
         <v>18</v>
       </c>
       <c r="E370" s="38">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>12.413793103448276</v>
       </c>
       <c r="F370" s="36">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="G370" s="21"/>
+        <f t="shared" si="13"/>
+        <v>12.413793103448276</v>
+      </c>
+      <c r="G370" s="21">
+        <f t="shared" si="14"/>
+        <v>74.482758620689651</v>
+      </c>
     </row>
     <row r="371" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="50"/>
+      <c r="B371" s="48"/>
       <c r="C371" s="34" t="s">
         <v>104</v>
       </c>
@@ -31244,46 +31382,70 @@
         <v>21</v>
       </c>
       <c r="E371" s="38">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>14.482758620689657</v>
       </c>
       <c r="F371" s="36">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G371" s="21"/>
+        <f t="shared" si="13"/>
+        <v>14.482758620689657</v>
+      </c>
+      <c r="G371" s="21">
+        <f t="shared" si="14"/>
+        <v>88.965517241379303</v>
+      </c>
     </row>
     <row r="372" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="50"/>
+      <c r="B372" s="48"/>
       <c r="C372" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D372" s="40">
         <v>16</v>
       </c>
-      <c r="E372" s="42">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="F372" s="43">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="G372" s="21"/>
+      <c r="E372" s="38">
+        <f t="shared" si="12"/>
+        <v>11.03448275862069</v>
+      </c>
+      <c r="F372" s="41">
+        <f t="shared" si="13"/>
+        <v>11.03448275862069</v>
+      </c>
+      <c r="G372" s="21">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C373" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D373" s="14">
+        <f>SUM(D367:D372)</f>
+        <v>145</v>
+      </c>
+      <c r="E373" s="22">
+        <f>SUM(E367:E372)</f>
+        <v>100</v>
+      </c>
+      <c r="F373" s="22">
+        <f>SUM(F367:F372)</f>
+        <v>100</v>
+      </c>
+      <c r="G373" s="23"/>
     </row>
     <row r="392" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="51" t="s">
+      <c r="B392" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C392" s="52"/>
-      <c r="D392" s="52"/>
-      <c r="E392" s="52"/>
-      <c r="F392" s="52"/>
-      <c r="G392" s="53"/>
+      <c r="C392" s="50"/>
+      <c r="D392" s="50"/>
+      <c r="E392" s="50"/>
+      <c r="F392" s="50"/>
+      <c r="G392" s="51"/>
     </row>
     <row r="393" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="54"/>
-      <c r="C393" s="55"/>
+      <c r="B393" s="52"/>
+      <c r="C393" s="53"/>
       <c r="D393" s="25" t="s">
         <v>69</v>
       </c>
@@ -31298,7 +31460,7 @@
       </c>
     </row>
     <row r="394" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="49"/>
+      <c r="B394" s="47"/>
       <c r="C394" s="31" t="s">
         <v>114</v>
       </c>
@@ -31316,7 +31478,7 @@
       </c>
     </row>
     <row r="395" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="50"/>
+      <c r="B395" s="48"/>
       <c r="C395" s="31" t="s">
         <v>119</v>
       </c>
@@ -31334,7 +31496,7 @@
       </c>
     </row>
     <row r="396" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="50"/>
+      <c r="B396" s="48"/>
       <c r="C396" s="31" t="s">
         <v>118</v>
       </c>
@@ -31352,7 +31514,7 @@
       </c>
     </row>
     <row r="397" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="50"/>
+      <c r="B397" s="48"/>
       <c r="C397" s="31" t="s">
         <v>118</v>
       </c>
@@ -31370,7 +31532,7 @@
       </c>
     </row>
     <row r="398" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="50"/>
+      <c r="B398" s="48"/>
       <c r="C398" s="32" t="s">
         <v>117</v>
       </c>
@@ -31388,7 +31550,7 @@
       </c>
     </row>
     <row r="399" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="56"/>
+      <c r="B399" s="54"/>
       <c r="C399" s="24" t="s">
         <v>68</v>
       </c>
@@ -31404,18 +31566,18 @@
       <c r="G399" s="23"/>
     </row>
     <row r="416" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="51" t="s">
+      <c r="B416" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C416" s="52"/>
-      <c r="D416" s="52"/>
-      <c r="E416" s="52"/>
-      <c r="F416" s="52"/>
-      <c r="G416" s="53"/>
+      <c r="C416" s="50"/>
+      <c r="D416" s="50"/>
+      <c r="E416" s="50"/>
+      <c r="F416" s="50"/>
+      <c r="G416" s="51"/>
     </row>
     <row r="417" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="54"/>
-      <c r="C417" s="55"/>
+      <c r="B417" s="52"/>
+      <c r="C417" s="53"/>
       <c r="D417" s="25" t="s">
         <v>69</v>
       </c>
@@ -31430,7 +31592,7 @@
       </c>
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B418" s="49"/>
+      <c r="B418" s="47"/>
       <c r="C418" s="31" t="s">
         <v>67</v>
       </c>
@@ -31448,7 +31610,7 @@
       </c>
     </row>
     <row r="419" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="50"/>
+      <c r="B419" s="48"/>
       <c r="C419" s="32" t="s">
         <v>64</v>
       </c>
@@ -31466,7 +31628,7 @@
       </c>
     </row>
     <row r="420" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B420" s="50"/>
+      <c r="B420" s="48"/>
       <c r="C420" s="31" t="s">
         <v>66</v>
       </c>
@@ -31484,7 +31646,7 @@
       </c>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B421" s="50"/>
+      <c r="B421" s="48"/>
       <c r="C421" s="31" t="s">
         <v>65</v>
       </c>
@@ -31502,7 +31664,7 @@
       </c>
     </row>
     <row r="422" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="56"/>
+      <c r="B422" s="54"/>
       <c r="C422" s="24" t="s">
         <v>68</v>
       </c>
@@ -31518,18 +31680,18 @@
       <c r="G422" s="23"/>
     </row>
     <row r="437" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="51" t="s">
+      <c r="B437" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C437" s="52"/>
-      <c r="D437" s="52"/>
-      <c r="E437" s="52"/>
-      <c r="F437" s="52"/>
-      <c r="G437" s="53"/>
+      <c r="C437" s="50"/>
+      <c r="D437" s="50"/>
+      <c r="E437" s="50"/>
+      <c r="F437" s="50"/>
+      <c r="G437" s="51"/>
     </row>
     <row r="438" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="54"/>
-      <c r="C438" s="55"/>
+      <c r="B438" s="52"/>
+      <c r="C438" s="53"/>
       <c r="D438" s="25" t="s">
         <v>69</v>
       </c>
@@ -31539,10 +31701,12 @@
       <c r="F438" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G438" s="27"/>
+      <c r="G438" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="439" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="49"/>
+      <c r="B439" s="47"/>
       <c r="C439" s="34" t="s">
         <v>106</v>
       </c>
@@ -31550,17 +31714,20 @@
         <v>79</v>
       </c>
       <c r="E439" s="37">
-        <f>D439/100*100</f>
-        <v>79</v>
+        <f>D439/161*100</f>
+        <v>49.068322981366457</v>
       </c>
       <c r="F439" s="17">
         <f>E439</f>
-        <v>79</v>
-      </c>
-      <c r="G439" s="18"/>
+        <v>49.068322981366457</v>
+      </c>
+      <c r="G439" s="18">
+        <f>F439</f>
+        <v>49.068322981366457</v>
+      </c>
     </row>
     <row r="440" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="50"/>
+      <c r="B440" s="48"/>
       <c r="C440" s="34" t="s">
         <v>107</v>
       </c>
@@ -31568,17 +31735,20 @@
         <v>29</v>
       </c>
       <c r="E440" s="38">
-        <f t="shared" ref="E440:E442" si="10">D440/100*100</f>
-        <v>28.999999999999996</v>
+        <f>D440/161*100</f>
+        <v>18.012422360248447</v>
       </c>
       <c r="F440" s="36">
         <f>E440</f>
-        <v>28.999999999999996</v>
-      </c>
-      <c r="G440" s="21"/>
+        <v>18.012422360248447</v>
+      </c>
+      <c r="G440" s="21">
+        <f>F440+G439</f>
+        <v>67.0807453416149</v>
+      </c>
     </row>
     <row r="441" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="50"/>
+      <c r="B441" s="48"/>
       <c r="C441" s="34" t="s">
         <v>144</v>
       </c>
@@ -31586,46 +31756,70 @@
         <v>12</v>
       </c>
       <c r="E441" s="38">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f t="shared" ref="E441:E442" si="15">D441/161*100</f>
+        <v>7.4534161490683228</v>
       </c>
       <c r="F441" s="36">
-        <f t="shared" ref="F441:F442" si="11">E441</f>
-        <v>12</v>
-      </c>
-      <c r="G441" s="21"/>
+        <f t="shared" ref="F441:F442" si="16">E441</f>
+        <v>7.4534161490683228</v>
+      </c>
+      <c r="G441" s="21">
+        <f t="shared" ref="G441:G443" si="17">F441+G440</f>
+        <v>74.534161490683218</v>
+      </c>
     </row>
     <row r="442" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B442" s="50"/>
+      <c r="B442" s="48"/>
       <c r="C442" s="39" t="s">
         <v>108</v>
       </c>
       <c r="D442" s="40">
         <v>41</v>
       </c>
-      <c r="E442" s="41">
-        <f t="shared" si="10"/>
-        <v>41</v>
+      <c r="E442" s="38">
+        <f t="shared" si="15"/>
+        <v>25.465838509316768</v>
       </c>
       <c r="F442" s="36">
-        <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-      <c r="G442" s="21"/>
+        <f t="shared" si="16"/>
+        <v>25.465838509316768</v>
+      </c>
+      <c r="G442" s="21">
+        <f t="shared" si="17"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C443" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D443" s="14">
+        <f>SUM(D439:D442)</f>
+        <v>161</v>
+      </c>
+      <c r="E443" s="22">
+        <f>SUM(E439:E442)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F443" s="22">
+        <f>SUM(F439:F442)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="G443" s="21"/>
     </row>
     <row r="461" spans="2:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="51" t="s">
+      <c r="B461" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C461" s="52"/>
-      <c r="D461" s="52"/>
-      <c r="E461" s="52"/>
-      <c r="F461" s="52"/>
-      <c r="G461" s="53"/>
+      <c r="C461" s="50"/>
+      <c r="D461" s="50"/>
+      <c r="E461" s="50"/>
+      <c r="F461" s="50"/>
+      <c r="G461" s="51"/>
     </row>
     <row r="462" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="54"/>
-      <c r="C462" s="55"/>
+      <c r="B462" s="52"/>
+      <c r="C462" s="53"/>
       <c r="D462" s="25" t="s">
         <v>69</v>
       </c>
@@ -31640,7 +31834,7 @@
       </c>
     </row>
     <row r="463" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B463" s="49"/>
+      <c r="B463" s="47"/>
       <c r="C463" s="31" t="s">
         <v>114</v>
       </c>
@@ -31658,7 +31852,7 @@
       </c>
     </row>
     <row r="464" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="50"/>
+      <c r="B464" s="48"/>
       <c r="C464" s="31" t="s">
         <v>119</v>
       </c>
@@ -31676,7 +31870,7 @@
       </c>
     </row>
     <row r="465" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="50"/>
+      <c r="B465" s="48"/>
       <c r="C465" s="31" t="s">
         <v>115</v>
       </c>
@@ -31694,7 +31888,7 @@
       </c>
     </row>
     <row r="466" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="50"/>
+      <c r="B466" s="48"/>
       <c r="C466" s="31" t="s">
         <v>118</v>
       </c>
@@ -31712,7 +31906,7 @@
       </c>
     </row>
     <row r="467" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B467" s="50"/>
+      <c r="B467" s="48"/>
       <c r="C467" s="32" t="s">
         <v>117</v>
       </c>
@@ -31730,7 +31924,7 @@
       </c>
     </row>
     <row r="468" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B468" s="56"/>
+      <c r="B468" s="54"/>
       <c r="C468" s="24" t="s">
         <v>68</v>
       </c>
@@ -31746,18 +31940,18 @@
       <c r="G468" s="23"/>
     </row>
     <row r="485" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B485" s="51" t="s">
+      <c r="B485" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C485" s="52"/>
-      <c r="D485" s="52"/>
-      <c r="E485" s="52"/>
-      <c r="F485" s="52"/>
-      <c r="G485" s="53"/>
+      <c r="C485" s="50"/>
+      <c r="D485" s="50"/>
+      <c r="E485" s="50"/>
+      <c r="F485" s="50"/>
+      <c r="G485" s="51"/>
     </row>
     <row r="486" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B486" s="54"/>
-      <c r="C486" s="55"/>
+      <c r="B486" s="52"/>
+      <c r="C486" s="53"/>
       <c r="D486" s="25" t="s">
         <v>69</v>
       </c>
@@ -31772,7 +31966,7 @@
       </c>
     </row>
     <row r="487" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B487" s="49"/>
+      <c r="B487" s="47"/>
       <c r="C487" s="32" t="s">
         <v>114</v>
       </c>
@@ -31790,7 +31984,7 @@
       </c>
     </row>
     <row r="488" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B488" s="50"/>
+      <c r="B488" s="48"/>
       <c r="C488" s="31" t="s">
         <v>115</v>
       </c>
@@ -31808,7 +32002,7 @@
       </c>
     </row>
     <row r="489" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B489" s="50"/>
+      <c r="B489" s="48"/>
       <c r="C489" s="31" t="s">
         <v>116</v>
       </c>
@@ -31826,7 +32020,7 @@
       </c>
     </row>
     <row r="490" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="56"/>
+      <c r="B490" s="54"/>
       <c r="C490" s="24" t="s">
         <v>68</v>
       </c>
@@ -31842,18 +32036,18 @@
       <c r="G490" s="23"/>
     </row>
     <row r="507" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B507" s="51" t="s">
+      <c r="B507" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C507" s="52"/>
-      <c r="D507" s="52"/>
-      <c r="E507" s="52"/>
-      <c r="F507" s="52"/>
-      <c r="G507" s="53"/>
+      <c r="C507" s="50"/>
+      <c r="D507" s="50"/>
+      <c r="E507" s="50"/>
+      <c r="F507" s="50"/>
+      <c r="G507" s="51"/>
     </row>
     <row r="508" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B508" s="54"/>
-      <c r="C508" s="55"/>
+      <c r="B508" s="52"/>
+      <c r="C508" s="53"/>
       <c r="D508" s="25" t="s">
         <v>69</v>
       </c>
@@ -31868,7 +32062,7 @@
       </c>
     </row>
     <row r="509" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B509" s="49"/>
+      <c r="B509" s="47"/>
       <c r="C509" s="31" t="s">
         <v>112</v>
       </c>
@@ -31886,7 +32080,7 @@
       </c>
     </row>
     <row r="510" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B510" s="50"/>
+      <c r="B510" s="48"/>
       <c r="C510" s="31" t="s">
         <v>113</v>
       </c>
@@ -31904,7 +32098,7 @@
       </c>
     </row>
     <row r="511" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B511" s="50"/>
+      <c r="B511" s="48"/>
       <c r="C511" s="31" t="s">
         <v>111</v>
       </c>
@@ -31922,7 +32116,7 @@
       </c>
     </row>
     <row r="512" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B512" s="50"/>
+      <c r="B512" s="48"/>
       <c r="C512" s="31" t="s">
         <v>110</v>
       </c>
@@ -31940,7 +32134,7 @@
       </c>
     </row>
     <row r="513" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B513" s="50"/>
+      <c r="B513" s="48"/>
       <c r="C513" s="32" t="s">
         <v>109</v>
       </c>
@@ -31958,7 +32152,7 @@
       </c>
     </row>
     <row r="514" spans="2:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B514" s="56"/>
+      <c r="B514" s="54"/>
       <c r="C514" s="24" t="s">
         <v>68</v>
       </c>
@@ -32001,6 +32195,14 @@
     <mergeCell ref="B140:G140"/>
     <mergeCell ref="B141:C141"/>
     <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="B204:G204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:B189"/>
     <mergeCell ref="B232:B236"/>
     <mergeCell ref="B253:G253"/>
     <mergeCell ref="B254:C254"/>
@@ -32022,14 +32224,6 @@
     <mergeCell ref="B507:G507"/>
     <mergeCell ref="B508:C508"/>
     <mergeCell ref="B509:B514"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:B189"/>
     <mergeCell ref="B319:G319"/>
     <mergeCell ref="B320:C320"/>
     <mergeCell ref="B321:B325"/>
